--- a/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
+++ b/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abbcgroup-my.sharepoint.com/personal/andrei_ionita_adrem_ro/Documents/Desktop/ML/forecast_app/Transavia/Production/Results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1A2B8333F6989791B18FE731F0AB83075BC84FCD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F736AC11-0DD0-49A3-9255-FBDD32945BB3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prediction_Production" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,11 +47,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,13 +89,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +141,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -148,6 +175,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -182,9 +210,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -357,14 +386,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,7 +411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45511</v>
       </c>
@@ -383,10 +419,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.0002159072319045663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>2.1590723190456629E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45511</v>
       </c>
@@ -394,10 +430,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.000215494103031233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2.1549410303123301E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45511</v>
       </c>
@@ -405,10 +441,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.0001718011917546391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1.7180119175463909E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45511</v>
       </c>
@@ -419,7 +455,7 @@
         <v>2.309420108795166</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45511</v>
       </c>
@@ -427,10 +463,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>2.487343788146973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>2.4873437881469731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45511</v>
       </c>
@@ -438,10 +474,10 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>2.531107187271118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>2.5311071872711182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45511</v>
       </c>
@@ -449,10 +485,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>2.341148614883423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>2.3411486148834229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45511</v>
       </c>
@@ -460,10 +496,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>2.135075092315674</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>2.1350750923156738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45511</v>
       </c>
@@ -471,10 +507,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>1.857563614845276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>1.8575636148452761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45511</v>
       </c>
@@ -482,10 +518,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>1.469853639602661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>1.4698536396026609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45511</v>
       </c>
@@ -493,10 +529,10 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>0.9691656827926636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.96916568279266357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45511</v>
       </c>
@@ -504,10 +540,10 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>0.4500027000904083</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.45000270009040833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45512</v>
       </c>
@@ -515,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05001300200819969</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>5.0013002008199692E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45512</v>
       </c>
@@ -526,10 +562,10 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.0001757534773787484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>1.7575347737874841E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45512</v>
       </c>
@@ -537,10 +573,10 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>0.0001589711027918383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>1.5897110279183829E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45512</v>
       </c>
@@ -548,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0001589711027918383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>1.5897110279183829E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45512</v>
       </c>
@@ -559,10 +595,10 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>0.0001589711027918383</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>1.5897110279183829E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45512</v>
       </c>
@@ -570,10 +606,10 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>0.0001589711027918383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>1.5897110279183829E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45512</v>
       </c>
@@ -581,10 +617,10 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>0.0001589711027918383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>1.5897110279183829E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45512</v>
       </c>
@@ -592,10 +628,10 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>0.0002220771857537329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>2.2207718575373289E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45512</v>
       </c>
@@ -603,10 +639,10 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>0.0002293381257914007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>2.293381257914007E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45512</v>
       </c>
@@ -614,10 +650,10 @@
         <v>9</v>
       </c>
       <c r="C23">
-        <v>0.0002293381257914007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>2.293381257914007E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45512</v>
       </c>
@@ -625,10 +661,10 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>0.04908135160803795</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>4.9081351608037949E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45512</v>
       </c>
@@ -636,10 +672,10 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>0.4247835278511047</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.42478352785110468</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45512</v>
       </c>
@@ -650,7 +686,7 @@
         <v>0.9875454306602478</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45512</v>
       </c>
@@ -661,7 +697,7 @@
         <v>1.508852958679199</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45512</v>
       </c>
@@ -669,10 +705,10 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>1.917119860649109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>1.9171198606491091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45512</v>
       </c>
@@ -680,10 +716,10 @@
         <v>15</v>
       </c>
       <c r="C29">
-        <v>2.234871864318848</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>2.2348718643188481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45512</v>
       </c>
@@ -691,10 +727,10 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>2.399228811264038</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>2.3992288112640381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45512</v>
       </c>
@@ -702,10 +738,10 @@
         <v>17</v>
       </c>
       <c r="C31">
-        <v>2.478945732116699</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>2.4789457321166992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45512</v>
       </c>
@@ -713,10 +749,10 @@
         <v>18</v>
       </c>
       <c r="C32">
-        <v>2.334848642349243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>2.3348486423492432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45512</v>
       </c>
@@ -727,7 +763,7 @@
         <v>2.064053058624268</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45512</v>
       </c>
@@ -735,10 +771,10 @@
         <v>20</v>
       </c>
       <c r="C34">
-        <v>1.743575215339661</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>1.7435752153396611</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45512</v>
       </c>
@@ -746,10 +782,10 @@
         <v>21</v>
       </c>
       <c r="C35">
-        <v>1.324394941329956</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>1.3243949413299561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45512</v>
       </c>
@@ -760,7 +796,7 @@
         <v>0.8493761420249939</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45512</v>
       </c>
@@ -768,10 +804,10 @@
         <v>23</v>
       </c>
       <c r="C37">
-        <v>0.4072339832782745</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.40723398327827448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45513</v>
       </c>
@@ -779,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0.03731689602136612</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>3.7316896021366119E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45513</v>
       </c>
@@ -790,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>0.0001854031870607287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>1.854031870607287E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45513</v>
       </c>
@@ -801,10 +837,10 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>0.0001832037960411981</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>1.832037960411981E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45513</v>
       </c>
@@ -812,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0.0001832037960411981</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>1.832037960411981E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45513</v>
       </c>
@@ -823,10 +859,10 @@
         <v>4</v>
       </c>
       <c r="C42">
-        <v>0.0001919050700962543</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>1.9190507009625429E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45513</v>
       </c>
@@ -834,10 +870,10 @@
         <v>5</v>
       </c>
       <c r="C43">
-        <v>0.0001699004496913403</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>1.699004496913403E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45513</v>
       </c>
@@ -845,10 +881,10 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>0.0001699004496913403</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>1.699004496913403E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45513</v>
       </c>
@@ -856,10 +892,10 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>0.0002213618718087673</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>2.2136187180876729E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45513</v>
       </c>
@@ -867,10 +903,10 @@
         <v>8</v>
       </c>
       <c r="C46">
-        <v>0.0002425912389298901</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>2.425912389298901E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45513</v>
       </c>
@@ -878,10 +914,10 @@
         <v>9</v>
       </c>
       <c r="C47">
-        <v>0.0002427446015644819</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>2.4274460156448191E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45513</v>
       </c>
@@ -889,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>0.01598268747329712</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>1.5982687473297119E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45513</v>
       </c>
@@ -903,7 +939,7 @@
         <v>0.2351345419883728</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45513</v>
       </c>
@@ -911,10 +947,10 @@
         <v>12</v>
       </c>
       <c r="C50">
-        <v>0.587754487991333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.58775448799133301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45513</v>
       </c>
@@ -922,10 +958,10 @@
         <v>13</v>
       </c>
       <c r="C51">
-        <v>0.9561572670936584</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.95615726709365845</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45513</v>
       </c>
@@ -936,7 +972,7 @@
         <v>1.357282280921936</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45513</v>
       </c>
@@ -944,10 +980,10 @@
         <v>15</v>
       </c>
       <c r="C53">
-        <v>1.613393425941467</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>1.6133934259414671</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45513</v>
       </c>
@@ -958,7 +994,7 @@
         <v>1.783894300460815</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45513</v>
       </c>
@@ -966,10 +1002,10 @@
         <v>17</v>
       </c>
       <c r="C55">
-        <v>1.818718910217285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>1.8187189102172849</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45513</v>
       </c>
@@ -980,7 +1016,7 @@
         <v>1.769705176353455</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45513</v>
       </c>
@@ -991,7 +1027,7 @@
         <v>1.612903237342834</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45513</v>
       </c>
@@ -1002,7 +1038,7 @@
         <v>1.369444012641907</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45513</v>
       </c>
@@ -1013,7 +1049,7 @@
         <v>1.109341502189636</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45513</v>
       </c>
@@ -1021,10 +1057,10 @@
         <v>22</v>
       </c>
       <c r="C60">
-        <v>0.7556831836700439</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.75568318367004395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45513</v>
       </c>
@@ -1032,10 +1068,10 @@
         <v>23</v>
       </c>
       <c r="C61">
-        <v>0.3262889385223389</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.32628893852233892</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45514</v>
       </c>
@@ -1043,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0.02755117975175381</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>2.7551179751753811E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45514</v>
       </c>
@@ -1054,10 +1090,10 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>0.0002870110038202256</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>2.870110038202256E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45514</v>
       </c>
@@ -1065,10 +1101,10 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>0.000228477903874591</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>2.2847790387459099E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45514</v>
       </c>
@@ -1076,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>0.0001912958396133035</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>1.9129583961330349E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45514</v>
       </c>
@@ -1087,10 +1123,10 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>0.0001597144873812795</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>1.597144873812795E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45514</v>
       </c>
@@ -1098,10 +1134,10 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <v>0.0001597144873812795</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>1.597144873812795E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45514</v>
       </c>
@@ -1109,10 +1145,10 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <v>0.0001597144873812795</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>1.597144873812795E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45514</v>
       </c>
@@ -1120,10 +1156,10 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <v>0.0002233217819593847</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>2.2332178195938471E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45514</v>
       </c>
@@ -1131,10 +1167,10 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <v>0.0002306182577740401</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>2.306182577740401E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45514</v>
       </c>
@@ -1142,10 +1178,10 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <v>0.0002308365947101265</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>2.3083659471012649E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45514</v>
       </c>
@@ -1153,10 +1189,10 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>0.02787054516375065</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>2.7870545163750648E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45514</v>
       </c>
@@ -1164,10 +1200,10 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <v>0.3470362424850464</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.34703624248504639</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45514</v>
       </c>
@@ -1175,10 +1211,10 @@
         <v>12</v>
       </c>
       <c r="C74">
-        <v>0.8533006310462952</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.85330063104629517</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45514</v>
       </c>
@@ -1186,10 +1222,10 @@
         <v>13</v>
       </c>
       <c r="C75">
-        <v>1.431806564331055</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>1.4318065643310549</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45514</v>
       </c>
@@ -1200,7 +1236,7 @@
         <v>1.887662291526794</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45514</v>
       </c>
@@ -1208,10 +1244,10 @@
         <v>15</v>
       </c>
       <c r="C77">
-        <v>2.205590009689331</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>2.2055900096893311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45514</v>
       </c>
@@ -1222,7 +1258,7 @@
         <v>2.376113653182983</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45514</v>
       </c>
@@ -1230,10 +1266,10 @@
         <v>17</v>
       </c>
       <c r="C79">
-        <v>2.324141502380371</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>2.3241415023803711</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45514</v>
       </c>
@@ -1244,7 +1280,7 @@
         <v>2.171872615814209</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45514</v>
       </c>
@@ -1252,10 +1288,10 @@
         <v>19</v>
       </c>
       <c r="C81">
-        <v>1.968944430351257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>1.9689444303512571</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45514</v>
       </c>
@@ -1266,7 +1302,7 @@
         <v>1.670255780220032</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45514</v>
       </c>
@@ -1277,7 +1313,7 @@
         <v>1.272804975509644</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45514</v>
       </c>
@@ -1288,7 +1324,7 @@
         <v>0.8110690712928772</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45514</v>
       </c>
@@ -1296,10 +1332,10 @@
         <v>23</v>
       </c>
       <c r="C85">
-        <v>0.3657746613025665</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.36577466130256647</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45515</v>
       </c>
@@ -1307,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>0.03071045130491257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>3.0710451304912571E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45515</v>
       </c>
@@ -1318,10 +1354,10 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>0.0001890129206003621</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>1.8901292060036209E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45515</v>
       </c>
@@ -1329,10 +1365,10 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <v>0.0002132194495061412</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>2.1321944950614119E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45515</v>
       </c>
@@ -1340,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0.0001760374434525147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>1.7603744345251471E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45515</v>
       </c>
@@ -1351,10 +1387,10 @@
         <v>4</v>
       </c>
       <c r="C90">
-        <v>0.0001551014138385653</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>1.551014138385653E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45515</v>
       </c>
@@ -1362,10 +1398,10 @@
         <v>5</v>
       </c>
       <c r="C91">
-        <v>0.0001592550688656047</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>1.592550688656047E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45515</v>
       </c>
@@ -1373,10 +1409,10 @@
         <v>6</v>
       </c>
       <c r="C92">
-        <v>0.0001592550688656047</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>1.592550688656047E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45515</v>
       </c>
@@ -1384,10 +1420,10 @@
         <v>7</v>
       </c>
       <c r="C93">
-        <v>0.0002224841446150094</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>2.224841446150094E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45515</v>
       </c>
@@ -1395,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="C94">
-        <v>0.0002298748586326838</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>2.2987485863268381E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45515</v>
       </c>
@@ -1406,10 +1442,10 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>0.0002298748586326838</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>2.2987485863268381E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45515</v>
       </c>
@@ -1417,10 +1453,10 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>0.02787147834897041</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>2.787147834897041E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45515</v>
       </c>
@@ -1428,10 +1464,10 @@
         <v>11</v>
       </c>
       <c r="C97">
-        <v>0.3808231949806213</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.38082319498062128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45515</v>
       </c>
@@ -1439,10 +1475,10 @@
         <v>12</v>
       </c>
       <c r="C98">
-        <v>0.93166583776474</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.93166583776473999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45515</v>
       </c>
@@ -1450,10 +1486,10 @@
         <v>13</v>
       </c>
       <c r="C99">
-        <v>1.440503478050232</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>1.4405034780502319</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45515</v>
       </c>
@@ -1461,10 +1497,10 @@
         <v>14</v>
       </c>
       <c r="C100">
-        <v>1.864176630973816</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>1.8641766309738159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45515</v>
       </c>
@@ -1472,10 +1508,10 @@
         <v>15</v>
       </c>
       <c r="C101">
-        <v>2.174628019332886</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>2.1746280193328862</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45515</v>
       </c>
@@ -1483,10 +1519,10 @@
         <v>16</v>
       </c>
       <c r="C102">
-        <v>2.363897085189819</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>2.3638970851898189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45515</v>
       </c>
@@ -1494,10 +1530,10 @@
         <v>17</v>
       </c>
       <c r="C103">
-        <v>2.236251831054688</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>2.2362518310546879</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45515</v>
       </c>
@@ -1505,10 +1541,10 @@
         <v>18</v>
       </c>
       <c r="C104">
-        <v>1.937966823577881</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>1.9379668235778811</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45515</v>
       </c>
@@ -1516,10 +1552,10 @@
         <v>19</v>
       </c>
       <c r="C105">
-        <v>1.716369867324829</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>1.7163698673248291</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45515</v>
       </c>
@@ -1527,10 +1563,10 @@
         <v>20</v>
       </c>
       <c r="C106">
-        <v>1.491530418395996</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>1.4915304183959961</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45515</v>
       </c>
@@ -1538,10 +1574,10 @@
         <v>21</v>
       </c>
       <c r="C107">
-        <v>1.138970136642456</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>1.1389701366424561</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45515</v>
       </c>
@@ -1549,10 +1585,10 @@
         <v>22</v>
       </c>
       <c r="C108">
-        <v>0.7175154089927673</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>0.71751540899276733</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45515</v>
       </c>
@@ -1560,10 +1596,10 @@
         <v>23</v>
       </c>
       <c r="C109">
-        <v>0.317530483007431</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>0.31753048300743097</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45516</v>
       </c>
@@ -1571,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>0.02098614349961281</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>2.0986143499612812E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45516</v>
       </c>
@@ -1582,10 +1618,10 @@
         <v>1</v>
       </c>
       <c r="C111">
-        <v>0.0001854031870607287</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>1.854031870607287E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45516</v>
       </c>
@@ -1593,10 +1629,10 @@
         <v>2</v>
       </c>
       <c r="C112">
-        <v>0.0003309372987132519</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>3.3093729871325189E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45516</v>
       </c>
@@ -1604,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>0.0003309372987132519</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>3.3093729871325189E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45516</v>
       </c>
@@ -1615,10 +1651,10 @@
         <v>4</v>
       </c>
       <c r="C114">
-        <v>0.0001622678973944858</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>1.622678973944858E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45516</v>
       </c>
@@ -1626,10 +1662,10 @@
         <v>5</v>
       </c>
       <c r="C115">
-        <v>0.0001622678973944858</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>1.622678973944858E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45516</v>
       </c>
@@ -1637,10 +1673,10 @@
         <v>6</v>
       </c>
       <c r="C116">
-        <v>0.000191999482922256</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>1.9199948292225599E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45516</v>
       </c>
@@ -1648,10 +1684,10 @@
         <v>7</v>
       </c>
       <c r="C117">
-        <v>0.0002184247568948194</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>2.1842475689481941E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45516</v>
       </c>
@@ -1659,10 +1695,10 @@
         <v>8</v>
       </c>
       <c r="C118">
-        <v>0.0001744336477713659</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>1.7443364777136591E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45516</v>
       </c>
@@ -1670,10 +1706,10 @@
         <v>9</v>
       </c>
       <c r="C119">
-        <v>0.0002298748586326838</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>2.2987485863268381E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45516</v>
       </c>
@@ -1681,10 +1717,10 @@
         <v>10</v>
       </c>
       <c r="C120">
-        <v>0.02761777676641941</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>2.7617776766419411E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45516</v>
       </c>
@@ -1692,10 +1728,10 @@
         <v>11</v>
       </c>
       <c r="C121">
-        <v>0.3683164417743683</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>0.36831644177436829</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45516</v>
       </c>
@@ -1703,10 +1739,10 @@
         <v>12</v>
       </c>
       <c r="C122">
-        <v>0.9333381056785583</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>0.93333810567855835</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45516</v>
       </c>
@@ -1717,7 +1753,7 @@
         <v>1.43657922744751</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45516</v>
       </c>
@@ -1728,7 +1764,7 @@
         <v>1.865858793258667</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45516</v>
       </c>
@@ -1739,7 +1775,7 @@
         <v>2.178643941879272</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45516</v>
       </c>
@@ -1747,10 +1783,10 @@
         <v>16</v>
       </c>
       <c r="C126">
-        <v>2.368526220321655</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>2.3685262203216548</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45516</v>
       </c>
@@ -1758,10 +1794,10 @@
         <v>17</v>
       </c>
       <c r="C127">
-        <v>2.421094179153442</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>2.4210941791534419</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45516</v>
       </c>
@@ -1772,7 +1808,7 @@
         <v>2.358757495880127</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45516</v>
       </c>
@@ -1780,10 +1816,10 @@
         <v>19</v>
       </c>
       <c r="C129">
-        <v>2.160920858383179</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>2.1609208583831792</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45516</v>
       </c>
@@ -1791,10 +1827,10 @@
         <v>20</v>
       </c>
       <c r="C130">
-        <v>1.830565690994263</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>1.8305656909942629</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45516</v>
       </c>
@@ -1802,10 +1838,10 @@
         <v>21</v>
       </c>
       <c r="C131">
-        <v>1.401669144630432</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>1.4016691446304319</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45516</v>
       </c>
@@ -1816,7 +1852,7 @@
         <v>0.9187883734703064</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45516</v>
       </c>
@@ -1824,10 +1860,10 @@
         <v>23</v>
       </c>
       <c r="C133">
-        <v>0.4097225368022919</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>0.40972253680229193</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45517</v>
       </c>
@@ -1835,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>0.02641727402806282</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>2.641727402806282E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45517</v>
       </c>
@@ -1846,10 +1882,10 @@
         <v>1</v>
       </c>
       <c r="C135">
-        <v>-0.001216726959683001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>-1.216726959683001E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>45517</v>
       </c>
@@ -1857,10 +1893,10 @@
         <v>2</v>
       </c>
       <c r="C136">
-        <v>-0.0008747274405322969</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>-8.747274405322969E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45517</v>
       </c>
@@ -1868,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>0.0001734597899485379</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>1.7345978994853789E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>45517</v>
       </c>
@@ -1879,10 +1915,10 @@
         <v>4</v>
       </c>
       <c r="C138">
-        <v>0.0001525236439192668</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>1.5252364391926679E-4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45517</v>
       </c>
@@ -1890,10 +1926,10 @@
         <v>5</v>
       </c>
       <c r="C139">
-        <v>0.0002963017614092678</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>2.9630176140926778E-4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>45517</v>
       </c>
@@ -1901,10 +1937,10 @@
         <v>6</v>
       </c>
       <c r="C140">
-        <v>0.000162244847160764</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>1.6224484716076401E-4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45517</v>
       </c>
@@ -1912,10 +1948,10 @@
         <v>7</v>
       </c>
       <c r="C141">
-        <v>0.0001973884354811162</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>1.973884354811162E-4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>45517</v>
       </c>
@@ -1923,10 +1959,10 @@
         <v>8</v>
       </c>
       <c r="C142">
-        <v>0.0002629035152494907</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>2.6290351524949068E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>45517</v>
       </c>
@@ -1934,10 +1970,10 @@
         <v>9</v>
       </c>
       <c r="C143">
-        <v>0.0001744336477713659</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>1.7443364777136591E-4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>45517</v>
       </c>
@@ -1945,10 +1981,10 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>0.02765432000160217</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>2.7654320001602169E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>45517</v>
       </c>
@@ -1956,10 +1992,10 @@
         <v>11</v>
       </c>
       <c r="C145">
-        <v>0.3859272599220276</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>0.38592725992202759</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>45517</v>
       </c>
@@ -1967,10 +2003,10 @@
         <v>12</v>
       </c>
       <c r="C146">
-        <v>0.9133966565132141</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>0.91339665651321411</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>45517</v>
       </c>
@@ -1981,7 +2017,7 @@
         <v>1.428214550018311</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>45517</v>
       </c>
@@ -1992,7 +2028,7 @@
         <v>1.841737627983093</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>45517</v>
       </c>
@@ -2000,10 +2036,10 @@
         <v>15</v>
       </c>
       <c r="C149">
-        <v>2.170807361602783</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>2.1708073616027832</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>45517</v>
       </c>
@@ -2011,10 +2047,10 @@
         <v>16</v>
       </c>
       <c r="C150">
-        <v>2.357166528701782</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>2.3571665287017818</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>45517</v>
       </c>
@@ -2022,10 +2058,10 @@
         <v>17</v>
       </c>
       <c r="C151">
-        <v>2.418292045593262</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>2.4182920455932622</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>45517</v>
       </c>
@@ -2033,10 +2069,10 @@
         <v>18</v>
       </c>
       <c r="C152">
-        <v>2.357166290283203</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>2.3571662902832031</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>45517</v>
       </c>
@@ -2044,10 +2080,10 @@
         <v>19</v>
       </c>
       <c r="C153">
-        <v>2.161070108413696</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>2.1610701084136958</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>45517</v>
       </c>
@@ -2055,10 +2091,10 @@
         <v>20</v>
       </c>
       <c r="C154">
-        <v>1.829155564308167</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>1.8291555643081669</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>45517</v>
       </c>
@@ -2069,7 +2105,7 @@
         <v>1.399100780487061</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>45517</v>
       </c>
@@ -2077,10 +2113,10 @@
         <v>22</v>
       </c>
       <c r="C156">
-        <v>0.8973998427391052</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>0.89739984273910522</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>45517</v>
       </c>
@@ -2088,10 +2124,10 @@
         <v>23</v>
       </c>
       <c r="C157">
-        <v>0.3774028122425079</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>0.37740281224250788</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>45518</v>
       </c>
@@ -2099,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="C158">
-        <v>0.02094236202538013</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>2.0942362025380131E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>45518</v>
       </c>
@@ -2110,10 +2146,10 @@
         <v>1</v>
       </c>
       <c r="C159">
-        <v>-0.0009601764031685889</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>-9.6017640316858888E-4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>45518</v>
       </c>
@@ -2121,10 +2157,10 @@
         <v>2</v>
       </c>
       <c r="C160">
-        <v>-0.0008690731483511627</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>-8.6907314835116267E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>45518</v>
       </c>
@@ -2132,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>0.0001854031870607287</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>1.854031870607287E-4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>45518</v>
       </c>
@@ -2143,10 +2179,10 @@
         <v>4</v>
       </c>
       <c r="C162">
-        <v>0.0003100012836512178</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>3.1000128365121782E-4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>45518</v>
       </c>
@@ -2154,10 +2190,10 @@
         <v>5</v>
       </c>
       <c r="C163">
-        <v>0.0001828760578064248</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>1.828760578064248E-4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>45518</v>
       </c>
@@ -2165,10 +2201,10 @@
         <v>6</v>
       </c>
       <c r="C164">
-        <v>0.0001828760578064248</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>1.828760578064248E-4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>45518</v>
       </c>
@@ -2176,10 +2212,10 @@
         <v>7</v>
       </c>
       <c r="C165">
-        <v>0.0002694337454158813</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>2.6943374541588128E-4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>45518</v>
       </c>
@@ -2187,10 +2223,10 @@
         <v>8</v>
       </c>
       <c r="C166">
-        <v>0.000188260295544751</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>1.8826029554475099E-4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>45518</v>
       </c>
@@ -2198,10 +2234,10 @@
         <v>9</v>
       </c>
       <c r="C167">
-        <v>0.0002289026451762766</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>2.2890264517627659E-4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>45518</v>
       </c>
@@ -2209,10 +2245,10 @@
         <v>10</v>
       </c>
       <c r="C168">
-        <v>0.01968497782945633</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>1.9684977829456329E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>45518</v>
       </c>
@@ -2223,7 +2259,7 @@
         <v>0.3081214427947998</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>45518</v>
       </c>
@@ -2231,7 +2267,7 @@
         <v>12</v>
       </c>
       <c r="C170">
-        <v>0.7891823649406433</v>
+        <v>0.78918236494064331</v>
       </c>
     </row>
   </sheetData>
